--- a/products.xlsx
+++ b/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f3rna\OneDrive\Área de Trabalho\Meu site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8089A48-060F-4CAC-A927-05E2FF290DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF720785-4F0F-4FE9-BCCA-35893EC91C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
   <si>
     <t>name</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Iluminação</t>
   </si>
   <si>
-    <t>Kit 10 Lâmpada Led Bulbo 15w 4000k Luz Neutra E27 Taschibra Cor da luz Neutra (4000K)</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_608539-MLU70045179042_062023-F.webp</t>
-  </si>
-  <si>
     <t>Ventilador De Mesa Mondial Super Power 6 Pás 30cm Preto Azul Vsp-30-ap</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
     <t>https://mercadolivre.com/sec/2sUxuHc</t>
   </si>
   <si>
-    <t>https://mercadolivre.com/sec/2HBUeSm</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_979721-MLA79634440558_102024-F.webp</t>
   </si>
   <si>
@@ -398,6 +389,165 @@
   </si>
   <si>
     <t>https://mercadolivre.com/sec/12HJFgJ</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/12FjkGn</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_654561-MLU74941455480_032024-F.webp</t>
+  </si>
+  <si>
+    <t>Panquequeira E Crepioca Elétrica 3 Em 1 900w Britânia</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/25gezUF</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_844986-MLB90069025741_082025-F-maquina-de-crepe-crepeira-crepera-hotdog-linguica-queijo-110.webp</t>
+  </si>
+  <si>
+    <t>Maquina De Crepe Crepeira Crepera Hotdog Linguiça Queijo 110</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_701271-MLA104689874488_012026-F.webp</t>
+  </si>
+  <si>
+    <t>Kit 2câmera Ip Icsee Prova D'água Infravermelho Externa Wifi - HW</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1L5FG1o</t>
+  </si>
+  <si>
+    <t>Kit Caneta Fine Line Cores Ponta Fina 0.4mm Cor Da Ti Tinta Kit 24 cores CORPO COLORIDO</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_Q_NP_890345-MLU77685731002_072024-R.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1ZrfdzY</t>
+  </si>
+  <si>
+    <t>Volta as aulas</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2WN2mZg</t>
+  </si>
+  <si>
+    <t>Lápis de Cor Multicolor 24 Cores 2B Para Desenho Modelo 11.2400N</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_707789-MLU72753307656_112023-F.webp</t>
+  </si>
+  <si>
+    <t>Papel A4 Sulfite Cor Branco 75g 500 Folhas Premium Resma</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_613006-MLA101345266963_122025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1Rh8AZL</t>
+  </si>
+  <si>
+    <t>Resistência Lorenzetti Acqua Ultra 220v 7800w Ref 3065b</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_808826-MLB79017709196_092024-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2zZu6Sg</t>
+  </si>
+  <si>
+    <t>Fio Nylon Aço 3mm Branco 35m Cinza Roçadeira Stihl Kawashima</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_636648-MLA99999816073_112025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1AenZWs</t>
+  </si>
+  <si>
+    <t>Raquete Beach Tennis Carbono Camewin Cores Modelos + Estojo Cor Verde</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_986008-MLA99979982031_112025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2w2TJ7r</t>
+  </si>
+  <si>
+    <t>Raquete Beach Tennis Shark Tour Modelo 2022</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_860626-MLA99986882345_112025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/18UeUfu</t>
+  </si>
+  <si>
+    <t>Conjunto Top Shorts Feminino Los Angeles Slim Moda Academia</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_982273-MLB79171128329_092024-F-conjunto-top-shorts-feminino-los-angeles-slim-moda-academia.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2LYXLmr</t>
+  </si>
+  <si>
+    <t>Kit Conjunto Fitness Feminino + Camiseta Roupa Academia Roxo Lisa M</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_841583-MLB89985983942_082025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2prGJrV</t>
+  </si>
+  <si>
+    <t>Kit 5 Camisa Masculina Termica Academia Dry Fit Malha Fria</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_997360-MLB89836875348_082025-F-kit-5-camisa-masculina-termica-academia-dry-fit-malha-fria.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/25NhkpX</t>
+  </si>
+  <si>
+    <t>Lâmpada Led Taschibra Bulbo 15w Branco Frio 6500k Luz Branco-frio</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_961028-MLU78230092907_082024-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1Vco6Tq</t>
+  </si>
+  <si>
+    <t>Bicicleta Ergométrica Bike Academia Spinning X11 cor preto e vermelho</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_Q_NP_936974-MLA99394285476_112025-R.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1mJZ2h8</t>
+  </si>
+  <si>
+    <t>Conjunto De Mesa Com 4 Cadeiras + Guarda Sol Piscina Jardim</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_879619-MLB101681386902_122025-F-conjunto-de-mesa-com-4-cadeiras-guarda-sol-piscina-jardim.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2La885p</t>
+  </si>
+  <si>
+    <t>Smart Tag Compatível Find My Airtag Gps Rastreador Objetos Preto</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_806966-MLA105981916235_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2YMSL6L</t>
+  </si>
+  <si>
+    <t>Eletronicos</t>
   </si>
 </sst>
 </file>
@@ -3700,8 +3850,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>187023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4090,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,10 +4274,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,7 +4333,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4208,7 +4358,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -4230,13 +4380,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -4244,13 +4394,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -4258,27 +4408,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -4286,41 +4436,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -4328,55 +4478,55 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -4384,13 +4534,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -4398,83 +4548,83 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
         <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -4482,13 +4632,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -4496,198 +4646,374 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -5094,17 +5420,17 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5119,6 +5445,7 @@
     <hyperlink ref="A199" r:id="rId8" location="redirect=landing_international&amp;origin=vip" display="https://www.mercadolivre.com.br/importados/compra-internacional - redirect=landing_international&amp;origin=vip" xr:uid="{CC0DCAE0-A290-49ED-AC96-9E0C27938302}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f3rna\OneDrive\Área de Trabalho\Meu site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF720785-4F0F-4FE9-BCCA-35893EC91C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E7BF8-B8D5-4AD9-A9C6-F4CBBF4C7121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="197">
   <si>
     <t>name</t>
   </si>
@@ -548,6 +548,69 @@
   </si>
   <si>
     <t>Eletronicos</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1ZpQzt2</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_788270-MLB85613415884_062025-F-headphone-bluetooth-reduco-de-ruido-do-anc-com-microfone-f5.webp</t>
+  </si>
+  <si>
+    <t>Headphone Bluetooth Redução De Ruído Do Anc Com Microfone F5</t>
+  </si>
+  <si>
+    <t>Jaleco Avental Botão Feminino Oxford Com Punho E Manga Longa</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_656171-MLB89388767014_082025-F-jaleco-avental-boto-feminino-oxford-com-punho-e-manga-longa.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1TenQm8</t>
+  </si>
+  <si>
+    <t>Roupas</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_963509-MLB104684972076_012026-F.webp</t>
+  </si>
+  <si>
+    <t>Roku Streaming Stick 2025 Para Tv Hd/fhd Controle Por Voz Preto De Voz</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1aWvc2u</t>
+  </si>
+  <si>
+    <t>Presente Natura Tododia Sabonetes em Barra Sortidos 5un 90G</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_776711-MLA92278973180_092025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/22FSP1t</t>
+  </si>
+  <si>
+    <t>Kit Moedor De Pés Automático Recarregável Usb Lixa De Pé</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_995783-MLB102098428340_122025-F-kit-moedor-de-pes-automatico-recarregavel-usb-lixa-de-pe.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2qRexEz</t>
+  </si>
+  <si>
+    <t>Quebra Sol Para Brisa Carro Protetor Solar Quebra Sol</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_998002-MLB90623040455_082025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2ieBGyx</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_796878-MLA88041903272_072025-F.webp</t>
+  </si>
+  <si>
+    <t>Sorveteira Ninja Creami</t>
   </si>
 </sst>
 </file>
@@ -1545,54 +1608,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="AutoShape 18" descr="Power Bank 20.000mah Haixia Carregador Rápido Com Display Portátil Branco">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081299CC-1C66-562E-EAD2-42E37BB8060A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9182100"/>
-          <a:ext cx="3905250" cy="4762500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3948,6 +3963,54 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13" descr="Sorveteira Ninja Creami">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258BCA52-C02B-68FF-3A72-E2E7C5B1A119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10934700" y="11049000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4240,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="63" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4939,7 +5002,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>166</v>
       </c>
       <c r="B50" t="s">
@@ -4953,7 +5016,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>169</v>
       </c>
       <c r="B51" t="s">
@@ -4967,7 +5030,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>172</v>
       </c>
       <c r="B52" t="s">
@@ -4981,25 +5044,99 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f3rna\OneDrive\Área de Trabalho\Meu site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E7BF8-B8D5-4AD9-A9C6-F4CBBF4C7121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70707FA5-9AA4-4988-AE9C-6F6ADB39ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="213">
   <si>
     <t>name</t>
   </si>
@@ -611,6 +612,54 @@
   </si>
   <si>
     <t>Sorveteira Ninja Creami</t>
+  </si>
+  <si>
+    <t>Cabo Usb Plus Turbo Tipo C Compativel Com Samsung Galaxy S25 S24 Plus S23 Fe S22 S21 S20 A16 A15 A22 A13 A14 A55 A53 A54 A06 A05s A20 A21 Apple iPhone 17 16 15 Carplay Auto Android</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_626755-MLA105599427615_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2c5oeZX</t>
+  </si>
+  <si>
+    <t>Nautica Voyage Edt 50ml Para Masculino</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_976778-MLA88319852853_072025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2Ajbyb7</t>
+  </si>
+  <si>
+    <t>Cuidado Pessoais</t>
+  </si>
+  <si>
+    <t>Paris Elysees Vodka Wild EDT 100ml para masculino</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_970885-MLA84177076022_052025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/2orPX4n</t>
+  </si>
+  <si>
+    <t>Perfume Natura Kaiak Extreme Deo colônia 100 ml</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_964055-MLA84536043026_052025-F.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1Y8FsRZ</t>
+  </si>
+  <si>
+    <t>Kit 10 Pares Meias Mash Invisível Esportiva Algodão Original</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_897046-MLB98663774114_112025-F-kit-10-pares-meias-mash-invisivel-esportiva-algodo-original.webp</t>
+  </si>
+  <si>
+    <t>https://mercadolivre.com/sec/1sDhKG4</t>
   </si>
 </sst>
 </file>
@@ -1065,13 +1114,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1113,13 +1162,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>166310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1161,14 +1210,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1209,14 +1258,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>189278</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>189279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1257,13 +1306,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1305,14 +1354,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1353,14 +1402,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1415,14 +1464,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1608,13 +1657,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1656,13 +1705,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>166310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1704,14 +1753,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1752,14 +1801,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>189278</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>189279</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1800,13 +1849,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1848,14 +1897,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1896,14 +1945,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1958,14 +2007,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2151,14 +2200,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2199,14 +2248,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2247,13 +2296,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2295,14 +2344,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2343,14 +2392,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2391,14 +2440,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2439,13 +2488,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2487,14 +2536,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2535,14 +2584,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2583,14 +2632,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>187023</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2631,13 +2680,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>198</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2789,14 +2838,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2837,14 +2886,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2885,13 +2934,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2933,14 +2982,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2981,14 +3030,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3029,14 +3078,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3077,13 +3126,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3125,14 +3174,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3173,14 +3222,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3221,14 +3270,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>187023</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3269,13 +3318,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>198</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3427,14 +3476,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3475,14 +3524,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3523,13 +3572,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3571,14 +3620,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3619,14 +3668,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3667,14 +3716,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3715,13 +3764,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3763,14 +3812,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3811,14 +3860,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3859,14 +3908,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3905250</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>187023</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>187022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3907,13 +3956,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>198</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3994,6 +4043,54 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="10934700" y="11049000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 1" descr="Azeite de Oliva Extra Virgem Terras de Camões Vidro 500ml">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F95D68-5E52-CB60-87DF-F142A0E8CD45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10934700" y="11430000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4301,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="63" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="63" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,22 +5236,77 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -5219,23 +5371,23 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+    <row r="88" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10"/>
     </row>
     <row r="89" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
     </row>
-    <row r="90" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+    <row r="90" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -5304,19 +5456,19 @@
       <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="6"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
@@ -5385,19 +5537,19 @@
       <c r="A141" s="4"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
+      <c r="A144" s="4"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
+      <c r="A145" s="5"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
+      <c r="A146" s="4"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
@@ -5466,19 +5618,19 @@
       <c r="A168" s="4"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="A169" s="6"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
+      <c r="A171" s="4"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
+      <c r="A172" s="5"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
+      <c r="A173" s="4"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
@@ -5547,26 +5699,23 @@
       <c r="A195" s="4"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
+      <c r="A196" s="7"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+      <c r="A198" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
+      <c r="A199" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
+    <row r="200" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5579,7 +5728,7 @@
     <hyperlink ref="B9" r:id="rId5" xr:uid="{E7AF4AD0-FB67-4D18-A345-7AC735B2DDD9}"/>
     <hyperlink ref="B10" r:id="rId6" xr:uid="{5ED3D7ED-FC6D-4C44-8B5F-671739F6A728}"/>
     <hyperlink ref="B14" r:id="rId7" xr:uid="{AED35A75-AE1C-4AD0-9122-E943C0451F4B}"/>
-    <hyperlink ref="A199" r:id="rId8" location="redirect=landing_international&amp;origin=vip" display="https://www.mercadolivre.com.br/importados/compra-internacional - redirect=landing_international&amp;origin=vip" xr:uid="{CC0DCAE0-A290-49ED-AC96-9E0C27938302}"/>
+    <hyperlink ref="A198" r:id="rId8" location="redirect=landing_international&amp;origin=vip" display="https://www.mercadolivre.com.br/importados/compra-internacional - redirect=landing_international&amp;origin=vip" xr:uid="{CC0DCAE0-A290-49ED-AC96-9E0C27938302}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
